--- a/results/tinybert/dilemma/confidence/topk/sum_scores.xlsx
+++ b/results/tinybert/dilemma/confidence/topk/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
   <si>
     <t>negative</t>
   </si>
@@ -52,300 +52,282 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>overly</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>outdated</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>shitty</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>downward</t>
+  </si>
+  <si>
+    <t>trapped</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>drunk</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>chilling</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>guilty</t>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>least</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>differently</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
-    <t>trapped</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>bitter</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
     <t>less</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>annoyed</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>harsh</t>
+    <t>long</t>
   </si>
   <si>
     <t>mean</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>more</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
@@ -355,226 +337,373 @@
     <t>best</t>
   </si>
   <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>own</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>fascinating</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>goals</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>design</t>
+  </si>
+  <si>
+    <t>biggest</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>delighted</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>remarkably</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>freely</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>elegant</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>oldest</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>quite</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>amazingly</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>delighted</t>
-  </si>
-  <si>
-    <t>elegant</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>oldest</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>impressive</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>splendid</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>perhaps</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>relevant</t>
+    <t>sharing</t>
   </si>
   <si>
     <t>welcome</t>
   </si>
   <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>wanna</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
     <t>hugely</t>
   </si>
   <si>
-    <t>fun</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>pro</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1001,13 +1130,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1334250343878955</v>
+        <v>0.1556603773584906</v>
       </c>
       <c r="C3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1019,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>0.1349397590361446</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1043,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1051,13 +1180,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09353507565337002</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="C4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1069,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K4">
-        <v>0.08674698795180723</v>
+        <v>0.07432432432432433</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1093,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1101,13 +1230,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.08253094910591471</v>
+        <v>0.09748427672955975</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1119,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K5">
-        <v>0.08433734939759036</v>
+        <v>0.07263513513513513</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1143,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1151,13 +1280,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.05089408528198074</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1169,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K6">
-        <v>0.07710843373493977</v>
+        <v>0.06418918918918919</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1193,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1201,13 +1330,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03988995873452544</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1219,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K7">
-        <v>0.06265060240963856</v>
+        <v>0.05574324324324324</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1243,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1251,13 +1380,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03163686382393398</v>
+        <v>0.04088050314465409</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1269,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K8">
-        <v>0.05301204819277108</v>
+        <v>0.05067567567567568</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1293,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1301,13 +1430,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02613480055020633</v>
+        <v>0.0220125786163522</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1319,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K9">
-        <v>0.04819277108433735</v>
+        <v>0.04222972972972973</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1343,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1351,13 +1480,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02200825309491059</v>
+        <v>0.0220125786163522</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1369,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K10">
-        <v>0.04337349397590361</v>
+        <v>0.03209459459459459</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1393,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1401,13 +1530,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02063273727647868</v>
+        <v>0.02044025157232704</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1422,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K11">
-        <v>0.03855421686746988</v>
+        <v>0.03040540540540541</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1443,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1451,37 +1580,37 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02063273727647868</v>
+        <v>0.02044025157232704</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="L12">
         <v>16</v>
       </c>
-      <c r="E12">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>283</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12">
-        <v>0.03614457831325301</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
       <c r="M12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1493,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1501,13 +1630,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02063273727647868</v>
+        <v>0.02044025157232704</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1519,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K13">
-        <v>0.02650602409638554</v>
+        <v>0.02195945945945946</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1543,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1551,13 +1680,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01925722145804677</v>
+        <v>0.02044025157232704</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1569,19 +1698,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K14">
-        <v>0.02409638554216868</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1593,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1601,13 +1730,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01925722145804677</v>
+        <v>0.01729559748427673</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1619,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K15">
-        <v>0.01927710843373494</v>
+        <v>0.01689189189189189</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1643,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1651,13 +1780,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01788170563961486</v>
+        <v>0.01572327044025157</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1669,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K16">
-        <v>0.01445783132530121</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1693,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1701,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01650618982118294</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1719,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K17">
-        <v>0.009638554216867471</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1743,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1751,49 +1880,49 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01513067400275103</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18">
+        <v>0.01182432432432432</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>11</v>
-      </c>
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18">
-        <v>0.009638554216867471</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1801,13 +1930,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01513067400275103</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1819,31 +1948,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K19">
-        <v>0.009638554216867471</v>
+        <v>0.01013513513513514</v>
       </c>
       <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>4</v>
-      </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1851,13 +1980,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01513067400275103</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1869,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K20">
-        <v>0.007228915662650603</v>
+        <v>0.01013513513513514</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1893,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1901,13 +2030,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01375515818431912</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1919,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K21">
-        <v>0.007228915662650603</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1948,16 +2077,16 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>0.01375515818431912</v>
+        <v>0.0110062893081761</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1969,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K22">
-        <v>0.007228915662650603</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1993,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1733</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01237964236588721</v>
+        <v>0.0110062893081761</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2019,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K23">
-        <v>0.007228915662650603</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2043,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01237964236588721</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2069,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K24">
-        <v>0.007228915662650603</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2093,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2101,13 +2230,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0110041265474553</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2119,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K25">
-        <v>0.007228915662650603</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2143,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2151,13 +2280,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0110041265474553</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2169,31 +2298,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K26">
-        <v>0.007228915662650603</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>3</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2201,13 +2330,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0110041265474553</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2219,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K27">
-        <v>0.004819277108433735</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2243,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>1145</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2251,13 +2380,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0110041265474553</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2269,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K28">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2293,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2301,13 +2430,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0110041265474553</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2322,16 +2451,16 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K29">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2343,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>710</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2351,13 +2480,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.009628610729023384</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2369,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K30">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2393,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2401,13 +2530,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.009628610729023384</v>
+        <v>0.007861635220125786</v>
       </c>
       <c r="C31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2419,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K31">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2443,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2451,13 +2580,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009628610729023384</v>
+        <v>0.007861635220125786</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2472,16 +2601,16 @@
         <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K32">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2493,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>662</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2501,13 +2630,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.009628610729023384</v>
+        <v>0.007861635220125786</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2519,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K33">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2543,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2551,13 +2680,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.009628610729023384</v>
+        <v>0.007861635220125786</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2569,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K34">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2593,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2601,13 +2730,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008253094910591471</v>
+        <v>0.007861635220125786</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2619,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K35">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2643,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2651,13 +2780,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008253094910591471</v>
+        <v>0.007861635220125786</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2669,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K36">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2693,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2701,13 +2830,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.008253094910591471</v>
+        <v>0.007861635220125786</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2719,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K37">
-        <v>0.004819277108433735</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2743,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2751,13 +2880,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008253094910591471</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2769,19 +2898,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K38">
-        <v>0.002409638554216868</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2793,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2801,13 +2930,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006877579092159559</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2819,19 +2948,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K39">
-        <v>0.002409638554216868</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2843,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2851,13 +2980,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006877579092159559</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2869,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40">
+        <v>0.005067567567567568</v>
+      </c>
+      <c r="L40">
         <v>3</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K40">
-        <v>0.002409638554216868</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
       <c r="M40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2893,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>287</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2901,13 +3030,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006877579092159559</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2919,31 +3048,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="K41">
-        <v>0.002409638554216868</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>283</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2951,13 +3080,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006877579092159559</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2969,19 +3098,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K42">
-        <v>0.002409638554216868</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2993,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3001,13 +3130,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005502063273727648</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3019,19 +3148,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K43">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3043,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>951</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3051,13 +3180,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005502063273727648</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3069,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K44">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3093,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>3927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3101,13 +3230,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005502063273727648</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3119,19 +3248,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K45">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3143,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3151,7 +3280,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004126547455295736</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -3169,19 +3298,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K46">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3193,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>60</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3201,13 +3330,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004126547455295736</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3219,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K47">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3243,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>2</v>
+        <v>954</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3251,13 +3380,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004126547455295736</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3269,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K48">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3293,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3301,13 +3430,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004126547455295736</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3319,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K49">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3343,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3351,13 +3480,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004126547455295736</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3369,31 +3498,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="K50">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
         <v>2</v>
       </c>
       <c r="N50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>238</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3401,13 +3530,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004126547455295736</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3419,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K51">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3443,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>877</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3451,13 +3580,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004126547455295736</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3469,19 +3598,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K52">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3493,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>5</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3501,13 +3630,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004126547455295736</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3519,31 +3648,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="K53">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
         <v>2</v>
       </c>
       <c r="N53">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>960</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3551,7 +3680,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.002751031636863824</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -3572,16 +3701,16 @@
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K54">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3593,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>114</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3601,7 +3730,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.002751031636863824</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3619,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K55">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3651,7 +3780,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002751031636863824</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -3669,19 +3798,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K56">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3693,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3701,7 +3830,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.002751031636863824</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3719,19 +3848,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K57">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3743,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>282</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3751,7 +3880,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.002751031636863824</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3769,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K58">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3793,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>448</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3801,7 +3930,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.002751031636863824</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3819,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K59">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3843,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3851,7 +3980,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.002751031636863824</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -3869,19 +3998,19 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K60">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3901,7 +4030,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.002751031636863824</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -3919,19 +4048,19 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K61">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3943,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3951,7 +4080,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3972,16 +4101,16 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K62">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3993,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4001,7 +4130,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4022,16 +4151,16 @@
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K63">
-        <v>0.002409638554216868</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4043,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4051,7 +4180,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4072,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K64">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4101,7 +4230,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4119,13 +4248,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K65">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4143,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4151,7 +4280,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4172,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K66">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4193,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4201,7 +4330,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4222,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K67">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4251,7 +4380,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4269,13 +4398,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K68">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4293,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4301,7 +4430,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4322,10 +4451,10 @@
         <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K69">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4343,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4351,7 +4480,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4369,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K70">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4401,7 +4530,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4419,13 +4548,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K71">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4443,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4451,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4469,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K72">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4493,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4501,7 +4630,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4519,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K73">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4543,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>40</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4551,7 +4680,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4569,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K74">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4593,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4601,7 +4730,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4619,13 +4748,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K75">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4643,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4651,7 +4780,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4672,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K76">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4701,7 +4830,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4719,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K77">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -4743,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4751,7 +4880,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4769,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K78">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -4793,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>340</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4801,7 +4930,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4819,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K79">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4843,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4851,7 +4980,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4872,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K80">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -4893,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>64</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -4901,7 +5030,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4922,10 +5051,10 @@
         <v>1</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K81">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -4943,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -4951,7 +5080,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4969,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K82">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -4993,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5001,7 +5130,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5019,13 +5148,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K83">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -5043,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>6</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5051,7 +5180,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5069,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K84">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -5093,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5101,7 +5230,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5119,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K85">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -5143,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5151,7 +5280,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5169,13 +5298,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K86">
-        <v>0.002409638554216868</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5193,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5201,7 +5330,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -5219,7 +5348,31 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>298</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K87">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5227,7 +5380,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5245,7 +5398,31 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K88">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5253,7 +5430,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5271,7 +5448,31 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K89">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5279,7 +5480,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5297,7 +5498,31 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K90">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5305,7 +5530,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5323,7 +5548,31 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K91">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5331,7 +5580,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5349,7 +5598,31 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K92">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5357,7 +5630,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.001375515818431912</v>
+        <v>0.001572327044025157</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5375,163 +5648,1045 @@
         <v>0</v>
       </c>
       <c r="H93">
+        <v>21</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K93">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="J94" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K94">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="J95" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K95">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="J96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K96">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K97">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K98">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K99">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K100">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="10:17">
+      <c r="J101" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K101">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17">
+      <c r="J102" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K102">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="10:17">
+      <c r="J103" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K103">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="10:17">
+      <c r="J104" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K104">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="10:17">
+      <c r="J105" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K105">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="10:17">
+      <c r="J106" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K106">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
+      <c r="J107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K107">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K108">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K109">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K110">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K111">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K112">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94">
-        <v>0.001375515818431912</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>0.001375515818431912</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>0.001375515818431912</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97">
-        <v>0.001375515818431912</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97">
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K113">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K114">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K115">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K116">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K117">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K118">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K119">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K120">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K121">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K122">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98">
-        <v>0.001375515818431912</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>0.5</v>
-      </c>
-      <c r="F98">
-        <v>0.5</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99">
-        <v>0.001375515818431912</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99">
-        <v>0.5</v>
-      </c>
-      <c r="F99">
-        <v>0.5</v>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>960</v>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K123">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K124">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K125">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="10:17">
+      <c r="J126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K126">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="10:17">
+      <c r="J127" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K127">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="10:17">
+      <c r="J128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K128">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K129">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="10:17">
+      <c r="J130" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K130">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="10:17">
+      <c r="J131" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K131">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="10:17">
+      <c r="J132" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K132">
+        <v>0.001689189189189189</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
